--- a/biology/Botanique/Lotier_des_Alpes/Lotier_des_Alpes.xlsx
+++ b/biology/Botanique/Lotier_des_Alpes/Lotier_des_Alpes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lotus alpinus
 Le Lotier des Alpes (Lotus alpinus) est une plante herbacée vivace de la famille des Fabacées et du genre des Lotiers.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lotus corniculatus var. alpinus Ser.
 Lotus corniculatus subsp. alpinus (DC.) Rothm.</t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante basse, plutôt couchée, aux feuilles à 5 folioles épaisses, ovales, les basales ressemblant à des stipules.
 Le lotier des Alpes se distingue de son cousin très répandu, le lotier corniculé, par ses fleurs lavées de rouge en fin de floraison, ses tiges rougeâtres et ses feuilles épaisses.
@@ -575,7 +591,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
